--- a/wxdgaming.boot.batis/src/test/resources/范例.xlsx
+++ b/wxdgaming.boot.batis/src/test/resources/范例.xlsx
@@ -112,12 +112,25 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>VIP等级达到多少才能买</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>0表示无限
 默认填1，此礼包次日不重置购买次数</t>
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>vip礼包</t>
   </si>
@@ -176,6 +189,9 @@
     <t>show_viplv</t>
   </si>
   <si>
+    <t>show_time</t>
+  </si>
+  <si>
     <t>conditions_viplv</t>
   </si>
   <si>
@@ -200,6 +216,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>wxdgaming.boot.core.timer.CronExpress</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -224,6 +243,9 @@
     <t>服务器使用字段</t>
   </si>
   <si>
+    <t>cron表达式</t>
+  </si>
+  <si>
     <t>是非类型</t>
   </si>
   <si>
@@ -237,6 +259,9 @@
   </si>
   <si>
     <t>VIP0级礼包</t>
+  </si>
+  <si>
+    <t>{"cron":"0 0","timeUnit":"SECONDS","duration":500}</t>
   </si>
   <si>
     <t>1:101011001:200</t>
@@ -447,7 +472,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +823,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,16 +847,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -834,89 +865,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,6 +959,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,10 +969,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1284,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1297,15 +1329,16 @@
     <col min="3" max="3" width="21.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="48.375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="47.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="48.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1316,8 +1349,9 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1342,11 +1376,14 @@
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1371,138 +1408,156 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="b">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>31</v>
+      <c r="I6" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="b">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="b">
+      <c r="G8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>37</v>
+      <c r="I8" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
